--- a/SourceCode/ExcisePlaning/Contents/ReportTemplates/RptSummaryBudgetUsed.xlsx
+++ b/SourceCode/ExcisePlaning/Contents/ReportTemplates/RptSummaryBudgetUsed.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Environment_Owner\Developments\C#\ASP.NET\Planing-กรมสรรพสามิต\SourceCode\ExcisePlaning\Contents\ReportTemplates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Environment_Owner\Developments\C#\ASP.NET\Planing-กรมสรรพสามิต\CSharpWebExcisePlaning\SourceCode\ExcisePlaning\Contents\ReportTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11388"/>
+    <workbookView xWindow="1560" yWindow="2016" windowWidth="21600" windowHeight="11388"/>
   </bookViews>
   <sheets>
     <sheet name="ภาพรวม" sheetId="1" r:id="rId1"/>
@@ -141,9 +141,6 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -155,6 +152,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -472,6 +472,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -480,60 +483,60 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.6"/>
   <cols>
-    <col min="1" max="1" width="29.109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="21" style="5" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="21" style="5" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="29.109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="21" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21" style="4" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" hidden="1">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="77" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>